--- a/ImportData/services.xlsx
+++ b/ImportData/services.xlsx
@@ -909,13 +909,12 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -933,6 +932,9 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -944,6 +946,9 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -955,6 +960,9 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -966,6 +974,9 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -977,6 +988,9 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -988,6 +1002,9 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -999,6 +1016,9 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -1010,6 +1030,9 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -1021,6 +1044,9 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -1032,6 +1058,9 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
@@ -1043,6 +1072,9 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -1054,6 +1086,9 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
@@ -1065,6 +1100,9 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
@@ -1076,6 +1114,9 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
@@ -1087,6 +1128,9 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
@@ -1097,7 +1141,10 @@
         <v>443.66</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
@@ -1108,7 +1155,10 @@
         <v>370.62</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
